--- a/file/input/model_Q124/output/qoq_pearson_corr.xlsx
+++ b/file/input/model_Q124/output/qoq_pearson_corr.xlsx
@@ -18,9 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_Digital_SPL_12" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8_Digital_SPL_1" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9_Digital_BCL_3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10_Digital_SPL_18" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11_Digital_SPL_24" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12_Digital_BCL_2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10_Digital_BCL_2" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17844,9208 +17842,6 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Digital_SPL_18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>USDIDR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7899581897281691</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.6352618265367519</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7899581897281677</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.1877367104963487</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>-0.7899581897281673</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.9464306411499589</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>-0.01377272123746828</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>0.7899581897281682</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.7445695970753187</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>-0.8205857030777794</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.8241748344809905</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.789958189728166</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.8326928063395478</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.8711672431127566</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-0.9220452439510994</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.7899581897281678</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.6835152835317478</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.732765187960749</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-0.7581092086746571</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.8241748344809888</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-0.789958189728168</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-0.9459128404509013</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-0.1421182388619622</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.6251540486837598</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>-0.7899581897281678</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-0.7995521513407382</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="n">
-        <v>-0.3789648825175293</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-0.8241748344809887</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.7899581897281679</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-0.9596839349920555</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.8711672431127567</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-0.9579704567674021</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
-        <v>0.7373797694652651</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>GDP</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7899581897281691</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.229948865057983</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9999999999999974</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.6065028628074198</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>-0.9999999999999973</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.8205002278788123</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.9476675215900157</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>-0.8583422720014615</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.6666666666666676</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.9999999999999923</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.6023082849678224</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.9573043219008829</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.9999999999999972</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.3214345683734662</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.8411910241920582</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-0.9069073811616006</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.6666666666666647</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-0.9999999999999971</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0.8378136765622576</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-0.6123724356957952</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.4061052124624396</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>-0.999999999999997</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-0.9523302880402444</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="n">
-        <v>-0.7787707063293432</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-0.6666666666666647</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.9999999999999971</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.8305602059460059</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.8176779063648009</v>
-      </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>0.886277592573378</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.6352618265367519</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.229948865057983</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.2299488650579841</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1341619983644653</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.229948865057984</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.653660984831974</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0.6762522267395072</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.4044610506934583</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>0.5094969642757653</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.2299488650579845</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.2747142889981636</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.3913464380146372</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.9948804776570774</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.4826980718143196</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.4547733386367123</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>-0.8393133574616435</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.6813005402586652</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>-0.07040717329052081</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.8780094673258289</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.4546004692683398</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>-0.05104010898477516</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.4454353112206588</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.466264427809533</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>-0.4466803082246264</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Birepo</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7899581897281677</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9999999999999974</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2299488650579841</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.6065028628074193</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.8205002278788146</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.3492221251391994</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.9476675215900175</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>-0.8583422720014645</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.6666666666666693</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9999999999999946</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-0.6023082849678252</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.7637626158259728</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-0.957304321900886</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-0.3214345683734676</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-0.8411910241920594</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-0.9069073811616021</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.6666666666666664</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-0.9999999999999997</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-0.83781367656226</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>-0.6123724356957946</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>-0.4061052124624402</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>-0.9999999999999996</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>-0.9523302880402467</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>-0.7787707063293452</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-0.6666666666666662</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>-0.8305602059460088</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.763762615825973</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>-0.8176779063648039</v>
-      </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>0.8862775925733793</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.1877367104963487</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.6065028628074198</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1341619983644653</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.6065028628074193</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>0.6065028628074206</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4390973913750487</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>-0.2437462328804289</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>-0.6065028628074211</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7766827118437236</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>0.400931375261136</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5317925543709199</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.6065028628074129</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-0.07296357368037089</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-0.4553412435989174</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.3972898611820307</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.2164982812226958</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.7721684915563755</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.7778892630149852</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>-0.5317925543709174</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.4710212893665834</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.9610076497369835</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.4995257907532207</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.7236101861421244</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="n">
-        <v>0.5439024949937168</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.5317925543709173</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.2315965602192818</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-0.4553412435989179</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.2407205365531111</v>
-      </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>-0.7896781444803184</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.7899581897281673</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.9999999999999973</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.229948865057984</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6065028628074206</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>-0.3492221251391993</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>-1.000000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
-        <v>0.858342272001465</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.6666666666666694</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.9999999999999952</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.6023082849678257</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.8411910241920596</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.9069073811616022</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.8378136765622604</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.6123724356957944</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.4061052124624402</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.9523302880402468</v>
-      </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.8305602059460093</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.8176779063648042</v>
-      </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>-0.8862775925733797</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.9464306411499589</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.8205002278788123</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.653660984831974</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.8205002278788146</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4390973913750487</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>-0.07231497536942548</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>-0.8205002278788158</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.8499668549436672</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>0.7541570626531134</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9263712250244707</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0.8205002278788118</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.7713947134312191</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.970323716640822</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8865762890664386</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.7148532794651842</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.9027215614647585</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.8980307783478239</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-0.9263712250244688</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.820500227878815</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.994591713841242</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.3998002957483627</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.7821765235215706</v>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.8872598736700689</v>
-      </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="n">
-        <v>0.3441438154053576</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.9263712250244684</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.9388626955466124</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>-0.9703237166408222</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.9475686397888315</v>
-      </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
-        <v>-0.8927732281598009</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.01377272123746828</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6762522267395072</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3492221251391994</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.2437462328804289</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>-0.3492221251391993</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.07231497536942548</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>0.3492221251392003</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.1887501979216612</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>0.1489346626293675</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2169203686971466</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.3492221251391961</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-0.3752582269005761</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="U11" t="n">
-        <v>-0.1911126482270212</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.6199647572545794</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.2344047313614003</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>-0.2210590350082628</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>-0.2169203686971482</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>-0.01036314119084476</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>-0.4990210797365259</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.3259172679054068</v>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>-0.1563505314528099</v>
-      </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>-0.1590820904642015</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.2169203686971482</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>-0.2601356072444176</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>-0.2529224521869421</v>
-      </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
-        <v>0.243984416678915</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7899581897281682</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.6065028628074211</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>-1.000000000000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.8205002278788158</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0.3492221251392003</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.9476675215900171</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>-0.8583422720014637</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.6666666666666687</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.9999999999999941</v>
-      </c>
-      <c r="S13" t="n">
-        <v>-0.6023082849678243</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.7637626158259724</v>
-      </c>
-      <c r="U13" t="n">
-        <v>-0.957304321900885</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-0.3214345683734672</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.8411910241920592</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-0.9069073811616016</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.6666666666666659</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-0.837813676562259</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>-0.6123724356957949</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>-0.4061052124624401</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>-0.952330288040246</v>
-      </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="n">
-        <v>-0.7787707063293446</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-0.6666666666666659</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>-0.8305602059460079</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0.7637626158259725</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>-0.8176779063648029</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
-        <v>0.8862775925733792</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.7445695970753187</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.9476675215900157</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4044610506934583</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.9476675215900175</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7766827118437236</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.8499668549436672</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>-0.1887501979216612</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>-0.9476675215900171</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>0.8385234151066575</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.8083473346487625</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-0.9476675215900124</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.4549059595468737</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-0.7942563584594426</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8823646102762449</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.4945639258576654</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.9375591259499713</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.980850125100574</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>-0.8083473346487599</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.8783372844918312</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.7269620722394596</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.6209806795343514</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>0.9476675215900181</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.9961645319045764</v>
-      </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="n">
-        <v>0.7175486787582213</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.8083473346487597</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0.7488750677757081</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>-0.794256358459443</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.746715206362851</v>
-      </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="n">
-        <v>-0.9682353456896599</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.8205857030777794</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.8583422720014615</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5094969642757653</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.8583422720014645</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.400931375261136</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>0.858342272001465</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.7541570626531134</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0.1489346626293675</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>-0.8583422720014637</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.8385234151066575</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.7078958724034896</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-0.8583422720014622</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.4347432931276031</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.5891864987553025</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.9110220197708823</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>-0.858342272001465</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5728012970381435</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.6540539386823747</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.7519821662951709</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0.7078958724034875</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.8583422720014651</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.8084584927889249</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.2816563139892537</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.4538201503655162</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>0.8583422720014647</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.8636518474975328</v>
-      </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="n">
-        <v>0.7931461060484944</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.7078958724034874</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0.8583422720014651</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.7152674129140674</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-0.5891864987553026</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.6977903246494008</v>
-      </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="n">
-        <v>-0.7098346435246421</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.8241748344809905</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.6666666666666676</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.6666666666666693</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.5317925543709199</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>0.6666666666666694</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9263712250244707</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0.2169203686971466</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>-0.6666666666666687</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.8083473346487625</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>0.7078958724034896</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-0.6666666666666641</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.5087458329339868</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.8728715609439682</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>-0.6666666666666672</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.887676888511246</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.8794269798371531</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.8614491632913461</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>-0.9999999999999984</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.6666666666666674</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.9425403861325417</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.4082482904638645</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.9427022312302887</v>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>0.6666666666666672</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.8380231095769923</v>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="n">
-        <v>0.2653497855719055</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>-0.6666666666666673</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.7446401846412487</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>-0.8728715609439686</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.7621053687886221</v>
-      </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
-        <v>-0.8592712061444397</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.789958189728166</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999999999999923</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.2299488650579845</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9999999999999946</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.6065028628074129</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>-0.9999999999999952</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.8205002278788118</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.3492221251391961</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>0.9999999999999941</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-0.9476675215900124</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>-0.8583422720014622</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.6666666666666641</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>-0.6023082849678304</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.763762615825977</v>
-      </c>
-      <c r="U18" t="n">
-        <v>-0.9573043219008925</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-0.3214345683734705</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-0.8411910241920626</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>-0.9069073811616059</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.6666666666666701</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-0.8378136765622649</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>-0.6123724356957941</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>-0.4061052124624418</v>
-      </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>-0.9523302880402511</v>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="n">
-        <v>-0.7787707063293492</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>-0.66666666666667</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>-0.8305602059460148</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0.7637626158259772</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>-0.8176779063648095</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
-        <v>0.886277592573383</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.8326928063395478</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.6023082849678224</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.2747142889981636</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.6023082849678252</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.07296357368037089</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>0.6023082849678257</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.7713947134312191</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>-0.3752582269005761</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>-0.6023082849678243</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.4549059595468737</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>0.4347432931276031</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.5087458329339868</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-0.6023082849678304</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>-0.8077475976366492</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.7291059704631877</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>-0.6023082849678251</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.3100180477900492</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.5379590085640528</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.520799938610746</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>-0.5087458329339879</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.7165144160482764</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.02864753332081534</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.3379304974287229</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.5114446293690688</v>
-      </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="n">
-        <v>0.06509315036461417</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.508745832933988</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>-0.602308284967825</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.9232845423072725</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>-0.8077475976366488</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0.923837957828285</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="n">
-        <v>-0.5194527979105013</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8711672431127566</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.7637626158259728</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.4553412435989174</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.970323716640822</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>0.7637626158259724</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-0.7942563584594426</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>-0.5891864987553025</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-0.8728715609439682</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.763762615825977</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-0.8077475976366492</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-0.6146721981229439</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>-0.91364276813721</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.8728715609439697</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-0.9433310288356631</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>-0.4677071733467431</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-0.7666020405223212</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>-0.8254017179378372</v>
-      </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="n">
-        <v>-0.2061874480145295</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>-0.8728715609439697</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.7637626158259733</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>-0.9212717239175813</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-0.9361195429106194</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
-        <v>0.887409358939189</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.9220452439510994</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.9573043219008829</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3913464380146372</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.957304321900886</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3972898611820307</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.8865762890664386</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>-0.1911126482270212</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>-0.957304321900885</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.8823646102762449</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>0.9110220197708823</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-0.9573043219008925</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.7291059704631877</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.4665070877001594</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.7824382922464523</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.8470906353941866</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-0.7248680163230613</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.90092244745815</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.3788111204309265</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.457133312171543</v>
-      </c>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="n">
-        <v>0.9573043219008863</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.9117891823915528</v>
-      </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="n">
-        <v>0.6819288648331896</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.9202543323309922</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.9073872943317859</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="n">
-        <v>-0.8198821343341849</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7899581897281678</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9999999999999972</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>-0.858342272001465</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.6666666666666672</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="S23" t="n">
-        <v>-0.6023082849678251</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="U23" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>-0.3214345683734678</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-0.8411910241920598</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>-0.9069073811616024</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>-0.8378136765622605</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>-0.6123724356957948</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>-0.952330288040247</v>
-      </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>-0.8176779063648041</v>
-      </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
-        <v>0.8862775925733799</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.6835152835317478</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.3214345683734662</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9948804776570774</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.3214345683734676</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2164982812226958</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.7148532794651842</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0.6199647572545794</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>-0.3214345683734672</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.4945639258576654</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>0.5728012970381435</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.887676888511246</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-0.3214345683734705</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.3100180477900492</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-0.6146721981229439</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.4665070877001594</v>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="n">
-        <v>-0.3214345683734678</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.5641388427630579</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.5413851772509322</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-0.8876768885112487</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.7439162758582377</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.01706332739147758</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.9056091373019873</v>
-      </c>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>0.3214345683734679</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.541488456738217</v>
-      </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="n">
-        <v>0.02702837109898659</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.8876768885112486</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>-0.321434568373468</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.5045023717256747</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>-0.6146721981229438</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.5243467463852959</v>
-      </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="n">
-        <v>-0.5327433659913974</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.732765187960749</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.8411910241920582</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4826980718143196</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.8411910241920594</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7721684915563755</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>0.8411910241920596</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.9027215614647585</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>-0.2344047313614003</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>-0.8411910241920592</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.9375591259499713</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>0.6540539386823747</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.8794269798371531</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-0.8411910241920626</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.5379590085640528</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-0.91364276813721</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.7824382922464523</v>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="n">
-        <v>-0.8411910241920598</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.5641388427630579</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.9871503589162313</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>-0.8794269798371533</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.9040877855861554</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.7492686492653554</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.7754985368592064</v>
-      </c>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.9377401447467488</v>
-      </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="n">
-        <v>0.4379377985753999</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.8794269798371532</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>-0.8411910241920597</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.7723286767016601</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>-0.9136427681372099</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.7850112499658463</v>
-      </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
-        <v>-0.9944098028982424</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.7581092086746571</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.9069073811616006</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4547733386367123</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.9069073811616021</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7778892630149852</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>0.9069073811616022</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.8980307783478239</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>-0.2210590350082628</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>-0.9069073811616016</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.980850125100574</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>0.7519821662951709</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8614491632913461</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.9069073811616059</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.520799938610746</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.8470906353941866</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="n">
-        <v>-0.9069073811616024</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.5413851772509322</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.9871503589162313</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>-0.8614491632913464</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.9069073811616026</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.9109898368381326</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.7440988870350372</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.7150284966692465</v>
-      </c>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>0.9069073811616024</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.9802029439432752</v>
-      </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="n">
-        <v>0.5718393143615758</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.8614491632913464</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>-0.9069073811616026</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0.7830625616447984</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0.7889443366134266</v>
-      </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
-        <v>-0.998037026322056</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.8241748344809888</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6666666666666647</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.8393133574616435</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6666666666666664</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.5317925543709174</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.9263712250244688</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>-0.2169203686971482</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>0.6666666666666659</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-0.8083473346487599</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>-0.7078958724034875</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-0.9999999999999984</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.6666666666666701</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-0.5087458329339879</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.8728715609439697</v>
-      </c>
-      <c r="U27" t="n">
-        <v>-0.7248680163230613</v>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="X27" t="n">
-        <v>-0.8876768885112487</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-0.8794269798371533</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>-0.8614491632913464</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>-0.9425403861325427</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>-0.4082482904638631</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>-0.9427022312302912</v>
-      </c>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>-0.8380231095769924</v>
-      </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>-0.2653497855719041</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>-0.7446401846412494</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0.8728715609439694</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>-0.7621053687886229</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
-        <v>0.8592712061444401</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.789958189728168</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.9999999999999971</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.9999999999999997</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.820500227878815</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>0.8583422720014651</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.6666666666666674</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.9069073811616026</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0.8378136765622602</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.6123724356957949</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0.9523302880402471</v>
-      </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0.830560205946009</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0.8176779063648041</v>
-      </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="n">
-        <v>-0.8862775925733799</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.9459128404509013</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.8378136765622576</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.6813005402586652</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.83781367656226</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.4710212893665834</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>0.8378136765622604</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.994591713841242</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>-0.01036314119084476</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>-0.837813676562259</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.8783372844918312</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>0.8084584927889249</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.9425403861325417</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-0.8378136765622649</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.7165144160482764</v>
-      </c>
-      <c r="T29" t="n">
-        <v>-0.9433310288356631</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.90092244745815</v>
-      </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>-0.8378136765622605</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.7439162758582377</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.9040877855861554</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.9109898368381326</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>-0.9425403861325427</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.8378136765622602</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.4085430014139675</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0.7904619171672465</v>
-      </c>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>0.8378136765622601</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.9136432248690657</v>
-      </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="n">
-        <v>0.4093305436833666</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0.9425403861325427</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>-0.8378136765622604</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0.9163541121837554</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>-0.9433310288356629</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0.9231591350378784</v>
-      </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="n">
-        <v>-0.9012728991119052</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1421182388619622</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.6123724356957952</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.07040717329052081</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.6123724356957946</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9610076497369835</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>0.6123724356957944</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.3998002957483627</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>-0.4990210797365259</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>-0.6123724356957949</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.7269620722394596</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>0.2816563139892537</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.4082482904638645</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-0.6123724356957941</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.02864753332081534</v>
-      </c>
-      <c r="T30" t="n">
-        <v>-0.4677071733467431</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.3788111204309265</v>
-      </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="n">
-        <v>-0.6123724356957948</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.01706332739147758</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.7492686492653554</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.7440988870350372</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>-0.4082482904638631</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.6123724356957949</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.4085430014139675</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.3626529824225828</v>
-      </c>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="n">
-        <v>0.6123724356957942</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0.669624829429967</v>
-      </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>0.493915140352306</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0.4082482904638628</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>-0.6123724356957942</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0.2614808680701378</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>-0.4677071733467426</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0.2693467985132994</v>
-      </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="n">
-        <v>-0.7635953881128216</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.6251540486837598</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.4061052124624396</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.8780094673258289</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.4061052124624402</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4995257907532207</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>0.4061052124624402</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.7821765235215706</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.3259172679054068</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>-0.4061052124624401</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.6209806795343514</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>0.4538201503655162</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.9427022312302887</v>
-      </c>
-      <c r="R31" t="n">
-        <v>-0.4061052124624418</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.3379304974287229</v>
-      </c>
-      <c r="T31" t="n">
-        <v>-0.7666020405223212</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.457133312171543</v>
-      </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.9056091373019873</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.7754985368592064</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.7150284966692465</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>-0.9427022312302912</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0.7904619171672465</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.3626529824225828</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0.6449759689831775</v>
-      </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="n">
-        <v>-0.008241788596245202</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0.942702231230291</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0.5381615323951253</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>-0.7666020405223211</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0.5680216501778539</v>
-      </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="n">
-        <v>-0.7280782625971359</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.7899581897281678</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.999999999999997</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.9999999999999996</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.9476675215900181</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
-        <v>0.8583422720014647</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.6666666666666672</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="T33" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.9573043219008863</v>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.3214345683734679</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0.9069073811616024</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.8378136765622601</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.6123724356957942</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0.9523302880402469</v>
-      </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0.8305602059460091</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0.817677906364804</v>
-      </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="n">
-        <v>-0.88627759257338</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.7995521513407382</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.9523302880402444</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.4546004692683398</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.9523302880402467</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7236101861421244</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
-        <v>0.9523302880402468</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.8872598736700689</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>-0.1563505314528099</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>-0.952330288040246</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.9961645319045764</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>0.8636518474975328</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.8380231095769923</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-0.9523302880402511</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.5114446293690688</v>
-      </c>
-      <c r="T34" t="n">
-        <v>-0.8254017179378372</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.9117891823915528</v>
-      </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="n">
-        <v>-0.952330288040247</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.541488456738217</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.9377401447467488</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.9802029439432752</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>-0.8380231095769924</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.9523302880402471</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0.9136432248690657</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.669624829429967</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.6449759689831775</v>
-      </c>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="n">
-        <v>0.9523302880402469</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="n">
-        <v>0.694707181499099</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0.8380231095769922</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>-0.9523302880402469</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0.794920891684964</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>-0.8254017179378373</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0.7928650827843956</v>
-      </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="n">
-        <v>-0.9659181468425004</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.3789648825175293</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.7787707063293432</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.05104010898477516</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.7787707063293452</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.5439024949937168</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.3441438154053576</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>-0.1590820904642015</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>-0.7787707063293446</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.7175486787582213</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>0.7931461060484944</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2653497855719055</v>
-      </c>
-      <c r="R36" t="n">
-        <v>-0.7787707063293492</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.06509315036461417</v>
-      </c>
-      <c r="T36" t="n">
-        <v>-0.2061874480145295</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.6819288648331896</v>
-      </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.02702837109898659</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.4379377985753999</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.5718393143615758</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>-0.2653497855719041</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.4093305436833666</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.493915140352306</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>-0.008241788596245202</v>
-      </c>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0.694707181499099</v>
-      </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0.2653497855719039</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0.3511480275969248</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>-0.2061874480145296</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0.3201355544330421</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="n">
-        <v>-0.5302550896434807</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.8241748344809887</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.6666666666666647</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.6666666666666662</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.5317925543709173</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.9263712250244684</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.2169203686971482</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>-0.6666666666666659</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.8083473346487597</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>0.7078958724034874</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-0.66666666666667</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.508745832933988</v>
-      </c>
-      <c r="T37" t="n">
-        <v>-0.8728715609439697</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.8876768885112486</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.8794269798371532</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.8614491632913464</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.9425403861325427</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.4082482904638628</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.942702231230291</v>
-      </c>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0.8380231095769922</v>
-      </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>0.2653497855719039</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0.7446401846412494</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>-0.8728715609439693</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0.7621053687886228</v>
-      </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="n">
-        <v>-0.8592712061444401</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.7899581897281679</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.9999999999999971</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>-0.8583422720014651</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-0.6666666666666673</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-0.602308284967825</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.7637626158259733</v>
-      </c>
-      <c r="U38" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="n">
-        <v>1</v>
-      </c>
-      <c r="X38" t="n">
-        <v>-0.321434568373468</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>-0.8411910241920597</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>-0.9069073811616026</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>-0.8378136765622604</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>-0.6123724356957942</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>-0.9523302880402469</v>
-      </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0.7637626158259735</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>-0.8176779063648042</v>
-      </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="n">
-        <v>0.8862775925733799</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.9596839349920555</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.8305602059460059</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4454353112206588</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.8305602059460088</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.2315965602192818</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>0.8305602059460093</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.9388626955466124</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>-0.2601356072444176</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>-0.8305602059460079</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.7488750677757081</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
-        <v>0.7152674129140674</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.7446401846412487</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-0.8305602059460148</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.9232845423072725</v>
-      </c>
-      <c r="T39" t="n">
-        <v>-0.9212717239175813</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.9202543323309922</v>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.5045023717256747</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.7723286767016601</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.7830625616447984</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>-0.7446401846412494</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.830560205946009</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0.9163541121837554</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.2614808680701378</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.5381615323951253</v>
-      </c>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="n">
-        <v>0.8305602059460091</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0.794920891684964</v>
-      </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>0.3511480275969248</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0.7446401846412494</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>-0.9212717239175812</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0.9989445083620524</v>
-      </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="n">
-        <v>-0.7725653340434374</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.8711672431127567</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.763762615825973</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-0.4553412435989179</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-0.9703237166408222</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>0.7637626158259725</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-0.794256358459443</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>-0.5891864987553026</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-0.8728715609439686</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.7637626158259772</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-0.8077475976366488</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-0.6146721981229438</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>-0.9136427681372099</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0.8728715609439694</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>-0.9433310288356629</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>-0.4677071733467426</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>-0.7666020405223211</v>
-      </c>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>-0.8254017179378373</v>
-      </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="n">
-        <v>-0.2061874480145296</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>-0.8728715609439693</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0.7637626158259735</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>-0.9212717239175812</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>-0.9361195429106192</v>
-      </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="n">
-        <v>0.887409358939189</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.9579704567674021</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.8176779063648009</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.466264427809533</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.8176779063648039</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.2407205365531111</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>0.8176779063648042</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.9475686397888315</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>-0.2529224521869421</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>-0.8176779063648029</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.746715206362851</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>0.6977903246494008</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7621053687886221</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-0.8176779063648095</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.923837957828285</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-0.9361195429106194</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.9073872943317859</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="n">
-        <v>-0.8176779063648041</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.5243467463852959</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.7850112499658463</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.7889443366134266</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>-0.7621053687886229</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.8176779063648041</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.9231591350378784</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.2693467985132994</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.5680216501778539</v>
-      </c>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="n">
-        <v>0.817677906364804</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0.7928650827843956</v>
-      </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="n">
-        <v>0.3201355544330421</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0.7621053687886228</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>-0.8176779063648042</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0.9989445083620524</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>-0.9361195429106192</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="n">
-        <v>-0.780789616319194</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Digital_SPL_18</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.7373797694652651</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.886277592573378</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-0.4466803082246264</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8862775925733793</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-0.7896781444803184</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>-0.8862775925733797</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-0.8927732281598009</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0.243984416678915</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>0.8862775925733792</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-0.9682353456896599</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>-0.7098346435246421</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.8592712061444397</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.886277592573383</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-0.5194527979105013</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.887409358939189</v>
-      </c>
-      <c r="U43" t="n">
-        <v>-0.8198821343341849</v>
-      </c>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="n">
-        <v>0.8862775925733799</v>
-      </c>
-      <c r="X43" t="n">
-        <v>-0.5327433659913974</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>-0.9944098028982424</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>-0.998037026322056</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.8592712061444401</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>-0.8862775925733799</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>-0.9012728991119052</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>-0.7635953881128216</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>-0.7280782625971359</v>
-      </c>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="n">
-        <v>-0.88627759257338</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>-0.9659181468425004</v>
-      </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="n">
-        <v>-0.5302550896434807</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>-0.8592712061444401</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0.8862775925733799</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>-0.7725653340434374</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0.887409358939189</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>-0.780789616319194</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AQ43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDR</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GDP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Digital_SPL_24</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>USDIDR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7899581897281691</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.6352618265367519</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7899581897281677</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.1877367104963487</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>-0.7899581897281673</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.9464306411499589</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>-0.01377272123746828</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>0.7899581897281682</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-0.7445695970753187</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>-0.8205857030777794</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.8241748344809905</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.789958189728166</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.8326928063395478</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.8711672431127566</v>
-      </c>
-      <c r="U2" t="n">
-        <v>-0.9220452439510994</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.7899581897281678</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.6835152835317478</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-0.732765187960749</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-0.7581092086746571</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.8241748344809888</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-0.789958189728168</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>-0.9459128404509013</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-0.1421182388619622</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.6251540486837598</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>-0.7899581897281678</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>-0.7995521513407382</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="n">
-        <v>-0.3789648825175293</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>-0.8241748344809887</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.7899581897281679</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>-0.9596839349920555</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.8711672431127567</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>-0.9579704567674021</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
-        <v>0.7602210560556498</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>GDP</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7899581897281691</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.229948865057983</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9999999999999974</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.6065028628074198</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>-0.9999999999999973</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.8205002278788123</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.9476675215900157</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>-0.8583422720014615</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.6666666666666676</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.9999999999999923</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.6023082849678224</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.9573043219008829</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.9999999999999972</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-0.3214345683734662</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-0.8411910241920582</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-0.9069073811616006</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.6666666666666647</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-0.9999999999999971</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0.8378136765622576</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-0.6123724356957952</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-0.4061052124624396</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>-0.999999999999997</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>-0.9523302880402444</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="n">
-        <v>-0.7787707063293432</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-0.6666666666666647</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.9999999999999971</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.8305602059460059</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>-0.8176779063648009</v>
-      </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>0.8133091431285105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.6352618265367519</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.229948865057983</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.2299488650579841</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1341619983644653</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.229948865057984</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.653660984831974</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0.6762522267395072</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.4044610506934583</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>0.5094969642757653</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.2299488650579845</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.2747142889981636</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.3913464380146372</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.9948804776570774</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.4826980718143196</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.4547733386367123</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>-0.8393133574616435</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.6813005402586652</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>-0.07040717329052081</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.8780094673258289</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.4546004692683398</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>-0.05104010898477516</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.4454353112206588</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.466264427809533</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>-0.5531934886937638</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Birepo</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7899581897281677</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9999999999999974</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.2299488650579841</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.6065028628074193</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-0.8205002278788146</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.3492221251391994</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.9476675215900175</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>-0.8583422720014645</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.6666666666666693</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.9999999999999946</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-0.6023082849678252</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.7637626158259728</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-0.957304321900886</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-0.3214345683734676</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-0.8411910241920594</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-0.9069073811616021</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.6666666666666664</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-0.9999999999999997</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-0.83781367656226</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>-0.6123724356957946</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>-0.4061052124624402</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>-0.9999999999999996</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>-0.9523302880402467</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>-0.7787707063293452</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-0.6666666666666662</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>-0.8305602059460088</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0.763762615825973</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>-0.8176779063648039</v>
-      </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>0.8133091431285118</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.1877367104963487</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.6065028628074198</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1341619983644653</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.6065028628074193</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>0.6065028628074206</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4390973913750487</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>-0.2437462328804289</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>-0.6065028628074211</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7766827118437236</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>0.400931375261136</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5317925543709199</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.6065028628074129</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-0.07296357368037089</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-0.4553412435989174</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.3972898611820307</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.2164982812226958</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.7721684915563755</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.7778892630149852</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>-0.5317925543709174</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.4710212893665834</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.9610076497369835</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.4995257907532207</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.7236101861421244</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="n">
-        <v>0.5439024949937168</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.5317925543709173</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.2315965602192818</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-0.4553412435989179</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.2407205365531111</v>
-      </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>-0.7330219710914179</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.7899581897281673</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.9999999999999973</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.229948865057984</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6065028628074206</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>-0.3492221251391993</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>-1.000000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
-        <v>0.858342272001465</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.6666666666666694</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.9999999999999952</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.6023082849678257</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.8411910241920596</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.9069073811616022</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.8378136765622604</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.6123724356957944</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.4061052124624402</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.9523302880402468</v>
-      </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.8305602059460093</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.8176779063648042</v>
-      </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>-0.8133091431285119</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.9464306411499589</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.8205002278788123</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.653660984831974</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.8205002278788146</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4390973913750487</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>-0.07231497536942548</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>-0.8205002278788158</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.8499668549436672</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>0.7541570626531134</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9263712250244707</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0.8205002278788118</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.7713947134312191</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.970323716640822</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.8865762890664386</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.7148532794651842</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.9027215614647585</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.8980307783478239</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-0.9263712250244688</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.820500227878815</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.994591713841242</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.3998002957483627</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.7821765235215706</v>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.8872598736700689</v>
-      </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="n">
-        <v>0.3441438154053576</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.9263712250244684</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.9388626955466124</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>-0.9703237166408222</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.9475686397888315</v>
-      </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="n">
-        <v>-0.9245521954318453</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.01377272123746828</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6762522267395072</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3492221251391994</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.2437462328804289</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>-0.3492221251391993</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.07231497536942548</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>0.3492221251392003</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.1887501979216612</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>0.1489346626293675</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2169203686971466</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.3492221251391961</v>
-      </c>
-      <c r="S11" t="n">
-        <v>-0.3752582269005761</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="U11" t="n">
-        <v>-0.1911126482270212</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.6199647572545794</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.2344047313614003</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>-0.2210590350082628</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>-0.2169203686971482</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>-0.01036314119084476</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>-0.4990210797365259</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.3259172679054068</v>
-      </c>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>-0.1563505314528099</v>
-      </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="n">
-        <v>-0.1590820904642015</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.2169203686971482</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>-0.2601356072444176</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>-0.2529224521869421</v>
-      </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="n">
-        <v>0.1708490218832859</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7899581897281682</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.6065028628074211</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>-1.000000000000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.8205002278788158</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0.3492221251392003</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.9476675215900171</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>-0.8583422720014637</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.6666666666666687</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.9999999999999941</v>
-      </c>
-      <c r="S13" t="n">
-        <v>-0.6023082849678243</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.7637626158259724</v>
-      </c>
-      <c r="U13" t="n">
-        <v>-0.957304321900885</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="X13" t="n">
-        <v>-0.3214345683734672</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.8411910241920592</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>-0.9069073811616016</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.6666666666666659</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-0.837813676562259</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>-0.6123724356957949</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>-0.4061052124624401</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>-0.952330288040246</v>
-      </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="n">
-        <v>-0.7787707063293446</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-0.6666666666666659</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>-0.8305602059460079</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0.7637626158259725</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>-0.8176779063648029</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="n">
-        <v>0.8133091431285115</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.7445695970753187</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.9476675215900157</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4044610506934583</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.9476675215900175</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7766827118437236</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.8499668549436672</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>-0.1887501979216612</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>-0.9476675215900171</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>0.8385234151066575</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.8083473346487625</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-0.9476675215900124</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.4549059595468737</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-0.7942563584594426</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8823646102762449</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.4945639258576654</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.9375591259499713</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.980850125100574</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>-0.8083473346487599</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.8783372844918312</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.7269620722394596</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.6209806795343514</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>0.9476675215900181</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0.9961645319045764</v>
-      </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="n">
-        <v>0.7175486787582213</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.8083473346487597</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0.7488750677757081</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>-0.794256358459443</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0.746715206362851</v>
-      </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="n">
-        <v>-0.919217187515722</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.8205857030777794</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.8583422720014615</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5094969642757653</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.8583422720014645</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.400931375261136</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>0.858342272001465</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.7541570626531134</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0.1489346626293675</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>-0.8583422720014637</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.8385234151066575</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.7078958724034896</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-0.8583422720014622</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.4347432931276031</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.5891864987553025</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.9110220197708823</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>-0.858342272001465</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5728012970381435</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.6540539386823747</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.7519821662951709</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0.7078958724034875</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.8583422720014651</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.8084584927889249</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.2816563139892537</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.4538201503655162</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>0.8583422720014647</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.8636518474975328</v>
-      </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="n">
-        <v>0.7931461060484944</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.7078958724034874</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0.8583422720014651</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.7152674129140674</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-0.5891864987553026</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.6977903246494008</v>
-      </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="n">
-        <v>-0.6534262996509417</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.8241748344809905</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.6666666666666676</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.6666666666666693</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.5317925543709199</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>0.6666666666666694</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.9263712250244707</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0.2169203686971466</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>-0.6666666666666687</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.8083473346487625</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>0.7078958724034896</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-0.6666666666666641</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.5087458329339868</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.8728715609439682</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="n">
-        <v>-0.6666666666666672</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.887676888511246</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.8794269798371531</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.8614491632913461</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>-0.9999999999999984</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.6666666666666674</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.9425403861325417</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.4082482904638645</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.9427022312302887</v>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>0.6666666666666672</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.8380231095769923</v>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="n">
-        <v>0.2653497855719055</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>-0.6666666666666673</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.7446401846412487</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>-0.8728715609439686</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.7621053687886221</v>
-      </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="n">
-        <v>-0.9149232433371268</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.789958189728166</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999999999999923</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.2299488650579845</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9999999999999946</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.6065028628074129</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>-0.9999999999999952</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.8205002278788118</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.3492221251391961</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>0.9999999999999941</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-0.9476675215900124</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>-0.8583422720014622</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.6666666666666641</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>-0.6023082849678304</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.763762615825977</v>
-      </c>
-      <c r="U18" t="n">
-        <v>-0.9573043219008925</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-0.3214345683734705</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-0.8411910241920626</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>-0.9069073811616059</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.6666666666666701</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-0.8378136765622649</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>-0.6123724356957941</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>-0.4061052124624418</v>
-      </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>-0.9523302880402511</v>
-      </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="n">
-        <v>-0.7787707063293492</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>-0.66666666666667</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>-0.8305602059460148</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0.7637626158259772</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>-0.8176779063648095</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="n">
-        <v>0.813309143128515</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.8326928063395478</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.6023082849678224</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.2747142889981636</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.6023082849678252</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.07296357368037089</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>0.6023082849678257</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.7713947134312191</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>-0.3752582269005761</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>-0.6023082849678243</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.4549059595468737</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>0.4347432931276031</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.5087458329339868</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-0.6023082849678304</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>-0.8077475976366492</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.7291059704631877</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="n">
-        <v>-0.6023082849678251</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.3100180477900492</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.5379590085640528</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.520799938610746</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>-0.5087458329339879</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.7165144160482764</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.02864753332081534</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.3379304974287229</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0.5114446293690688</v>
-      </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="n">
-        <v>0.06509315036461417</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.508745832933988</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>-0.602308284967825</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.9232845423072725</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>-0.8077475976366488</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0.923837957828285</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="n">
-        <v>-0.5565293458123286</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8711672431127566</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.7637626158259728</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.4553412435989174</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.970323716640822</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>0.7637626158259724</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-0.7942563584594426</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>-0.5891864987553025</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-0.8728715609439682</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.763762615825977</v>
-      </c>
-      <c r="S20" t="n">
-        <v>-0.8077475976366492</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="X20" t="n">
-        <v>-0.6146721981229439</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>-0.91364276813721</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.8728715609439697</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-0.9433310288356631</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>-0.4677071733467431</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-0.7666020405223212</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>-0.8254017179378372</v>
-      </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="n">
-        <v>-0.2061874480145295</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>-0.8728715609439697</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.7637626158259733</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>-0.9212717239175813</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-0.9361195429106194</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="n">
-        <v>0.9316756506681989</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.9220452439510994</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.9573043219008829</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3913464380146372</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.957304321900886</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3972898611820307</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.8865762890664386</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>-0.1911126482270212</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>-0.957304321900885</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.8823646102762449</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>0.9110220197708823</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-0.9573043219008925</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.7291059704631877</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.4665070877001594</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.7824382922464523</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.8470906353941866</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-0.7248680163230613</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.90092244745815</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.3788111204309265</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.457133312171543</v>
-      </c>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="n">
-        <v>0.9573043219008863</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.9117891823915528</v>
-      </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="n">
-        <v>0.6819288648331896</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.9202543323309922</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.9073872943317859</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="n">
-        <v>-0.7759892380102951</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7899581897281678</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9999999999999972</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>-0.9999999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>0.9999999999999989</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>-0.858342272001465</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.6666666666666672</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="S23" t="n">
-        <v>-0.6023082849678251</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="U23" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>-0.3214345683734678</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-0.8411910241920598</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>-0.9069073811616024</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>-0.8378136765622605</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>-0.6123724356957948</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>-0.952330288040247</v>
-      </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>-0.8176779063648041</v>
-      </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="n">
-        <v>0.813309143128512</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.6835152835317478</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.3214345683734662</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9948804776570774</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.3214345683734676</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2164982812226958</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.7148532794651842</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0.6199647572545794</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>-0.3214345683734672</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.4945639258576654</v>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>0.5728012970381435</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.887676888511246</v>
-      </c>
-      <c r="R24" t="n">
-        <v>-0.3214345683734705</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.3100180477900492</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-0.6146721981229439</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.4665070877001594</v>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="n">
-        <v>-0.3214345683734678</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.5641388427630579</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.5413851772509322</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-0.8876768885112487</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.7439162758582377</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.01706332739147758</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.9056091373019873</v>
-      </c>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>0.3214345683734679</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.541488456738217</v>
-      </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="n">
-        <v>0.02702837109898659</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.8876768885112486</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>-0.321434568373468</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.5045023717256747</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>-0.6146721981229438</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0.5243467463852959</v>
-      </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="n">
-        <v>-0.6291099208634917</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.732765187960749</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.8411910241920582</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4826980718143196</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.8411910241920594</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.7721684915563755</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>0.8411910241920596</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.9027215614647585</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>-0.2344047313614003</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>-0.8411910241920592</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.9375591259499713</v>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>0.6540539386823747</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.8794269798371531</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-0.8411910241920626</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.5379590085640528</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-0.91364276813721</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.7824382922464523</v>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="n">
-        <v>-0.8411910241920598</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.5641388427630579</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.9871503589162313</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>-0.8794269798371533</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.9040877855861554</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.7492686492653554</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.7754985368592064</v>
-      </c>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.9377401447467488</v>
-      </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="n">
-        <v>0.4379377985753999</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.8794269798371532</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>-0.8411910241920597</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.7723286767016601</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>-0.9136427681372099</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0.7850112499658463</v>
-      </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="n">
-        <v>-0.9959780204250849</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.7581092086746571</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.9069073811616006</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4547733386367123</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.9069073811616021</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7778892630149852</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>0.9069073811616022</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.8980307783478239</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>-0.2210590350082628</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>-0.9069073811616016</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.980850125100574</v>
-      </c>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>0.7519821662951709</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8614491632913461</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.9069073811616059</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.520799938610746</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.8470906353941866</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="n">
-        <v>-0.9069073811616024</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.5413851772509322</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.9871503589162313</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>-0.8614491632913464</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.9069073811616026</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.9109898368381326</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.7440988870350372</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.7150284966692465</v>
-      </c>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>0.9069073811616024</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.9802029439432752</v>
-      </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="n">
-        <v>0.5718393143615758</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0.8614491632913464</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>-0.9069073811616026</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0.7830625616447984</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0.7889443366134266</v>
-      </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="n">
-        <v>-0.9768122583154784</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.8241748344809888</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6666666666666647</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.8393133574616435</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.6666666666666664</v>
-      </c>
-      <c r="F27" t="n">
-        <v>-0.5317925543709174</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.9263712250244688</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>-0.2169203686971482</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>0.6666666666666659</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-0.8083473346487599</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>-0.7078958724034875</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>-0.9999999999999984</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.6666666666666701</v>
-      </c>
-      <c r="S27" t="n">
-        <v>-0.5087458329339879</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.8728715609439697</v>
-      </c>
-      <c r="U27" t="n">
-        <v>-0.7248680163230613</v>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="X27" t="n">
-        <v>-0.8876768885112487</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-0.8794269798371533</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>-0.8614491632913464</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>-0.9425403861325427</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>-0.4082482904638631</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>-0.9427022312302912</v>
-      </c>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>-0.8380231095769924</v>
-      </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="n">
-        <v>-0.2653497855719041</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>-0.7446401846412494</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0.8728715609439694</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>-0.7621053687886229</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="n">
-        <v>0.9149232433371276</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.789958189728168</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.9999999999999971</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.9999999999999997</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.820500227878815</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.947667521590018</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>0.8583422720014651</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.6666666666666674</v>
-      </c>
-      <c r="R28" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.9573043219008865</v>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.321434568373468</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.9069073811616026</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>-0.6666666666666666</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0.8378136765622602</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.6123724356957949</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0.9523302880402471</v>
-      </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0.830560205946009</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0.8176779063648041</v>
-      </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="n">
-        <v>-0.813309143128512</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.9459128404509013</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.8378136765622576</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.6813005402586652</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.83781367656226</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.4710212893665834</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>0.8378136765622604</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.994591713841242</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>-0.01036314119084476</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>-0.837813676562259</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.8783372844918312</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>0.8084584927889249</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.9425403861325417</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-0.8378136765622649</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.7165144160482764</v>
-      </c>
-      <c r="T29" t="n">
-        <v>-0.9433310288356631</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.90092244745815</v>
-      </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="n">
-        <v>-0.8378136765622605</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.7439162758582377</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.9040877855861554</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.9109898368381326</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>-0.9425403861325427</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.8378136765622602</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.4085430014139675</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0.7904619171672465</v>
-      </c>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>0.8378136765622601</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.9136432248690657</v>
-      </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="n">
-        <v>0.4093305436833666</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0.9425403861325427</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>-0.8378136765622604</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0.9163541121837554</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>-0.9433310288356629</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0.9231591350378784</v>
-      </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="n">
-        <v>-0.925039355392236</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1421182388619622</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.6123724356957952</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.07040717329052081</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.6123724356957946</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9610076497369835</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>0.6123724356957944</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.3998002957483627</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>-0.4990210797365259</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>-0.6123724356957949</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.7269620722394596</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>0.2816563139892537</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.4082482904638645</v>
-      </c>
-      <c r="R30" t="n">
-        <v>-0.6123724356957941</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.02864753332081534</v>
-      </c>
-      <c r="T30" t="n">
-        <v>-0.4677071733467431</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.3788111204309265</v>
-      </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="n">
-        <v>-0.6123724356957948</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.01706332739147758</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.7492686492653554</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.7440988870350372</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>-0.4082482904638631</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.6123724356957949</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.4085430014139675</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.3626529824225828</v>
-      </c>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="n">
-        <v>0.6123724356957942</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0.669624829429967</v>
-      </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="n">
-        <v>0.493915140352306</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0.4082482904638628</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>-0.6123724356957942</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0.2614808680701378</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>-0.4677071733467426</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0.2693467985132994</v>
-      </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="n">
-        <v>-0.697596332274234</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.6251540486837598</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.4061052124624396</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.8780094673258289</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.4061052124624402</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4995257907532207</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>0.4061052124624402</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.7821765235215706</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.3259172679054068</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>-0.4061052124624401</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.6209806795343514</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>0.4538201503655162</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.9427022312302887</v>
-      </c>
-      <c r="R31" t="n">
-        <v>-0.4061052124624418</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.3379304974287229</v>
-      </c>
-      <c r="T31" t="n">
-        <v>-0.7666020405223212</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.457133312171543</v>
-      </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.9056091373019873</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.7754985368592064</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.7150284966692465</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>-0.9427022312302912</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0.7904619171672465</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.3626529824225828</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0.6449759689831775</v>
-      </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="n">
-        <v>-0.008241788596245202</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0.942702231230291</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0.5381615323951253</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>-0.7666020405223211</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0.5680216501778539</v>
-      </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="n">
-        <v>-0.8236466287389186</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.7899581897281678</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.999999999999997</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.2299488650579843</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.9999999999999996</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.6065028628074195</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.8205002278788149</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>-0.3492221251391995</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>-0.9999999999999989</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.9476675215900181</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="n">
-        <v>0.8583422720014647</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.6666666666666672</v>
-      </c>
-      <c r="R33" t="n">
-        <v>-1.000000000000005</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.602308284967825</v>
-      </c>
-      <c r="T33" t="n">
-        <v>-0.7637626158259732</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.9573043219008863</v>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="n">
-        <v>-0.9999999999999998</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.3214345683734679</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.8411910241920597</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0.9069073811616024</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.8378136765622601</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.6123724356957942</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.4061052124624404</v>
-      </c>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0.9523302880402469</v>
-      </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0.8305602059460091</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0.817677906364804</v>
-      </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="n">
-        <v>-0.8133091431285121</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.7995521513407382</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.9523302880402444</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.4546004692683398</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.9523302880402467</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.7236101861421244</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
-        <v>0.9523302880402468</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.8872598736700689</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>-0.1563505314528099</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>-0.952330288040246</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.9961645319045764</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
-        <v>0.8636518474975328</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.8380231095769923</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-0.9523302880402511</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.5114446293690688</v>
-      </c>
-      <c r="T34" t="n">
-        <v>-0.8254017179378372</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.9117891823915528</v>
-      </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="n">
-        <v>-0.952330288040247</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.541488456738217</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.9377401447467488</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.9802029439432752</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>-0.8380231095769924</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.9523302880402471</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0.9136432248690657</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.669624829429967</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.6449759689831775</v>
-      </c>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="n">
-        <v>0.9523302880402469</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="n">
-        <v>0.694707181499099</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0.8380231095769922</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>-0.9523302880402469</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0.794920891684964</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>-0.8254017179378373</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0.7928650827843956</v>
-      </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="n">
-        <v>-0.925410475475224</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.3789648825175293</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.7787707063293432</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.05104010898477516</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.7787707063293452</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.5439024949937168</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.3441438154053576</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>-0.1590820904642015</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>-0.7787707063293446</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.7175486787582213</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>0.7931461060484944</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.2653497855719055</v>
-      </c>
-      <c r="R36" t="n">
-        <v>-0.7787707063293492</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.06509315036461417</v>
-      </c>
-      <c r="T36" t="n">
-        <v>-0.2061874480145295</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.6819288648331896</v>
-      </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.02702837109898659</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.4379377985753999</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.5718393143615758</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>-0.2653497855719041</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.4093305436833666</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.493915140352306</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>-0.008241788596245202</v>
-      </c>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="n">
-        <v>0.7787707063293454</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0.694707181499099</v>
-      </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0.2653497855719039</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0.3511480275969248</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>-0.2061874480145296</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0.3201355544330421</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="n">
-        <v>-0.3856864131675654</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.8241748344809887</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.6666666666666647</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.8393133574616435</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.6666666666666662</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.5317925543709173</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>0.6666666666666665</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.9263712250244684</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.2169203686971482</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>-0.6666666666666659</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.8083473346487597</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
-        <v>0.7078958724034874</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-0.66666666666667</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.508745832933988</v>
-      </c>
-      <c r="T37" t="n">
-        <v>-0.8728715609439697</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.7248680163230613</v>
-      </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.8876768885112486</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.8794269798371532</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.8614491632913464</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.9425403861325427</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.4082482904638628</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.942702231230291</v>
-      </c>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0.8380231095769922</v>
-      </c>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="n">
-        <v>0.2653497855719039</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0.7446401846412494</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>-0.8728715609439693</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0.7621053687886228</v>
-      </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="n">
-        <v>-0.9149232433371275</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.7899581897281679</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.9999999999999971</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.2299488650579843</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.6065028628074195</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0.8205002278788149</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.3492221251391995</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>0.999999999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-0.947667521590018</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>-0.8583422720014651</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-0.6666666666666673</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.000000000000005</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-0.602308284967825</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.7637626158259733</v>
-      </c>
-      <c r="U38" t="n">
-        <v>-0.9573043219008864</v>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="n">
-        <v>1</v>
-      </c>
-      <c r="X38" t="n">
-        <v>-0.321434568373468</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>-0.8411910241920597</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>-0.9069073811616026</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>-0.8378136765622604</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>-0.6123724356957942</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>-0.4061052124624404</v>
-      </c>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>-0.9523302880402469</v>
-      </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="n">
-        <v>-0.7787707063293455</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>-0.6666666666666667</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0.7637626158259735</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>-0.8176779063648042</v>
-      </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="n">
-        <v>0.8133091431285121</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.9596839349920555</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.8305602059460059</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4454353112206588</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.8305602059460088</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.2315965602192818</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>0.8305602059460093</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.9388626955466124</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>-0.2601356072444176</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>-0.8305602059460079</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.7488750677757081</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
-        <v>0.7152674129140674</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.7446401846412487</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-0.8305602059460148</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0.9232845423072725</v>
-      </c>
-      <c r="T39" t="n">
-        <v>-0.9212717239175813</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.9202543323309922</v>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.5045023717256747</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.7723286767016601</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.7830625616447984</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>-0.7446401846412494</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.830560205946009</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0.9163541121837554</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.2614808680701378</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.5381615323951253</v>
-      </c>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="n">
-        <v>0.8305602059460091</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0.794920891684964</v>
-      </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="n">
-        <v>0.3511480275969248</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0.7446401846412494</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>-0.8305602059460091</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>-0.9212717239175812</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0.9989445083620524</v>
-      </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="n">
-        <v>-0.7849952917776503</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.8711672431127567</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.763762615825971</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.5532229920511347</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.763762615825973</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-0.4553412435989179</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-0.9703237166408222</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0.2341159465824655</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>0.7637626158259725</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-0.794256358459443</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="n">
-        <v>-0.5891864987553026</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-0.8728715609439686</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.7637626158259772</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-0.8077475976366488</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="n">
-        <v>-0.8026180290321018</v>
-      </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="n">
-        <v>0.7637626158259734</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-0.6146721981229438</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>-0.9136427681372099</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>-0.878645274719288</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0.8728715609439694</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>-0.7637626158259735</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>-0.9433310288356629</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>-0.4677071733467426</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>-0.7666020405223211</v>
-      </c>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="n">
-        <v>-0.7637626158259734</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>-0.8254017179378373</v>
-      </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="n">
-        <v>-0.2061874480145296</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>-0.8728715609439693</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0.7637626158259735</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>-0.9212717239175812</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>-0.9361195429106192</v>
-      </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="n">
-        <v>0.9316756506681988</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.9579704567674021</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.8176779063648009</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.466264427809533</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.8176779063648039</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.2407205365531111</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>0.8176779063648042</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.9475686397888315</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>-0.2529224521869421</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>-0.8176779063648029</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.746715206362851</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
-        <v>0.6977903246494008</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.7621053687886221</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-0.8176779063648095</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0.923837957828285</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-0.9361195429106194</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.9073872943317859</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="n">
-        <v>-0.8176779063648041</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.5243467463852959</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0.7850112499658463</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.7889443366134266</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>-0.7621053687886229</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.8176779063648041</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.9231591350378784</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.2693467985132994</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.5680216501778539</v>
-      </c>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="n">
-        <v>0.817677906364804</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0.7928650827843956</v>
-      </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="n">
-        <v>0.3201355544330421</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0.7621053687886228</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>-0.8176779063648042</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0.9989445083620524</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>-0.9361195429106192</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="n">
-        <v>-0.799868831736584</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Digital_SPL_24</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.7602210560556498</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.8133091431285105</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-0.5531934886937638</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8133091431285118</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-0.7330219710914179</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>-0.8133091431285119</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-0.9245521954318453</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0.1708490218832859</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>0.8133091431285115</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-0.919217187515722</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="n">
-        <v>-0.6534262996509417</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.9149232433371268</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.813309143128515</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-0.5565293458123286</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.9316756506681989</v>
-      </c>
-      <c r="U43" t="n">
-        <v>-0.7759892380102951</v>
-      </c>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="n">
-        <v>0.813309143128512</v>
-      </c>
-      <c r="X43" t="n">
-        <v>-0.6291099208634917</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>-0.9959780204250849</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>-0.9768122583154784</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.9149232433371276</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>-0.813309143128512</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>-0.925039355392236</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>-0.697596332274234</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>-0.8236466287389186</v>
-      </c>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="n">
-        <v>-0.8133091431285121</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>-0.925410475475224</v>
-      </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="n">
-        <v>-0.3856864131675654</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>-0.9149232433371275</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0.8133091431285121</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>-0.7849952917776503</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0.9316756506681988</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>-0.799868831736584</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AQ43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDR</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GDP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CPI</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag1Q</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag1Q</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag1Q</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag1Q</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag1Q</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag2Q</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag2Q</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag2Q</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag2Q</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag2Q</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>delta_GDP_lag3Q</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>delta_CPI_lag3Q</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Birepo_lag3Q</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>delta_USDIDRgrowth_lag3Q</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>delta_Unemployment_lag3Q</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
           <t>Digital_BCL_2</t>
         </is>
       </c>
